--- a/Munkanaplo.xlsx
+++ b/Munkanaplo.xlsx
@@ -1,17 +1,36 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\uniProjects\Byteaholics-mdsd-2020\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{219FDC83-3C13-4E74-A39F-4CFBB932F88C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <bookViews>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
   <sheets>
-    <sheet state="visible" name="Munkalap1" sheetId="1" r:id="rId4"/>
+    <sheet name="Munkalap1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="15">
   <si>
     <t>Dátum</t>
   </si>
@@ -41,41 +60,87 @@
   </si>
   <si>
     <t>SUM:</t>
+  </si>
+  <si>
+    <t>Sirius</t>
+  </si>
+  <si>
+    <t>Sirius + metamodell frissítése</t>
+  </si>
+  <si>
+    <t>Sirius, VIATRA Query</t>
+  </si>
+  <si>
+    <t>VIATRA Query</t>
+  </si>
+  <si>
+    <t>Megbeszélés</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="yyyy.mm.dd."/>
-  </numFmts>
-  <fonts count="3">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
     </font>
     <font>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
     </font>
-    <font/>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="238"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="238"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="238"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="lightGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
   </fills>
   <borders count="3">
-    <border/>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -90,53 +155,61 @@
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+  <cellXfs count="15">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="2" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf borderId="2" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" name="Normal" builtinId="0"/>
+    <cellStyle name="Normál" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheets">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Sheets">
   <a:themeElements>
     <a:clrScheme name="Sheets">
       <a:dk1>
@@ -326,26 +399,32 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:E31"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G15" sqref="G15"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col customWidth="1" min="2" max="2" width="17.29"/>
-    <col customWidth="1" min="4" max="4" width="17.29"/>
-    <col customWidth="1" min="5" max="5" width="38.14"/>
+    <col min="1" max="1" width="14.44140625" style="10"/>
+    <col min="2" max="2" width="17.33203125" customWidth="1"/>
+    <col min="4" max="4" width="17.33203125" customWidth="1"/>
+    <col min="5" max="5" width="38.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
@@ -361,195 +440,311 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" s="2">
-        <v>43939.0</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="D2" s="4">
-        <v>5.0</v>
-      </c>
-      <c r="E2" s="5" t="s">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="9">
+        <v>43939</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" s="3">
+        <v>5</v>
+      </c>
+      <c r="E2" s="4" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" s="2">
-        <v>43940.0</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3" s="6"/>
-      <c r="D3" s="4">
-        <v>2.0</v>
-      </c>
-      <c r="E3" s="5" t="s">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="9">
+        <v>43940</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" s="5"/>
+      <c r="D3" s="3">
+        <v>2</v>
+      </c>
+      <c r="E3" s="4" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="2">
-        <v>43940.0</v>
-      </c>
-      <c r="B4" s="6"/>
-      <c r="C4" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="D4" s="4">
-        <v>2.0</v>
-      </c>
-      <c r="E4" s="5" t="s">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="9">
+        <v>43940</v>
+      </c>
+      <c r="B4" s="5"/>
+      <c r="C4" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D4" s="3">
+        <v>2</v>
+      </c>
+      <c r="E4" s="4" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="2"/>
-      <c r="B5" s="6"/>
-      <c r="C5" s="6"/>
-      <c r="D5" s="6"/>
-    </row>
-    <row r="6">
-      <c r="B6" s="6"/>
-      <c r="C6" s="6"/>
-      <c r="D6" s="6"/>
-    </row>
-    <row r="7">
-      <c r="B7" s="6"/>
-      <c r="C7" s="6"/>
-      <c r="D7" s="6"/>
-    </row>
-    <row r="8">
-      <c r="B8" s="6"/>
-      <c r="C8" s="6"/>
-      <c r="D8" s="6"/>
-    </row>
-    <row r="9">
-      <c r="B9" s="6"/>
-      <c r="C9" s="6"/>
-      <c r="D9" s="6"/>
-    </row>
-    <row r="10">
-      <c r="B10" s="6"/>
-      <c r="C10" s="6"/>
-      <c r="D10" s="6"/>
-    </row>
-    <row r="11">
-      <c r="B11" s="6"/>
-      <c r="C11" s="6"/>
-      <c r="D11" s="6"/>
-    </row>
-    <row r="12">
-      <c r="B12" s="6"/>
-      <c r="C12" s="6"/>
-      <c r="D12" s="6"/>
-    </row>
-    <row r="13">
-      <c r="B13" s="6"/>
-      <c r="C13" s="6"/>
-      <c r="D13" s="6"/>
-    </row>
-    <row r="14">
-      <c r="B14" s="6"/>
-      <c r="C14" s="6"/>
-      <c r="D14" s="6"/>
-    </row>
-    <row r="15">
-      <c r="B15" s="6"/>
-      <c r="C15" s="6"/>
-      <c r="D15" s="6"/>
-    </row>
-    <row r="16">
-      <c r="B16" s="6"/>
-      <c r="C16" s="6"/>
-      <c r="D16" s="6"/>
-    </row>
-    <row r="17">
-      <c r="B17" s="6"/>
-      <c r="C17" s="6"/>
-      <c r="D17" s="6"/>
-    </row>
-    <row r="18">
-      <c r="B18" s="6"/>
-      <c r="C18" s="6"/>
-      <c r="D18" s="6"/>
-    </row>
-    <row r="19">
-      <c r="B19" s="6"/>
-      <c r="C19" s="7" t="s">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="9">
+        <v>43965</v>
+      </c>
+      <c r="B5" s="5"/>
+      <c r="C5" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="D5" s="5">
+        <v>6</v>
+      </c>
+      <c r="E5" s="12" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="10">
+        <v>43966</v>
+      </c>
+      <c r="B6" s="5"/>
+      <c r="C6" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="D6" s="5">
+        <v>8</v>
+      </c>
+      <c r="E6" s="12" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" s="10">
+        <v>43966</v>
+      </c>
+      <c r="B7" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="C7" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="D7" s="14">
+        <v>2</v>
+      </c>
+      <c r="E7" s="12" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" s="10">
+        <v>43967</v>
+      </c>
+      <c r="B8" s="5"/>
+      <c r="C8" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="D8" s="5">
+        <v>8</v>
+      </c>
+      <c r="E8" s="12" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" s="10">
+        <v>43968</v>
+      </c>
+      <c r="B9" s="5"/>
+      <c r="C9" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="D9" s="5">
+        <v>4</v>
+      </c>
+      <c r="E9" s="12" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" s="10">
+        <v>43971</v>
+      </c>
+      <c r="B10" s="5"/>
+      <c r="C10" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="D10" s="5">
+        <v>8</v>
+      </c>
+      <c r="E10" s="12" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" s="10">
+        <v>43971</v>
+      </c>
+      <c r="B11" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="C11" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="D11" s="11">
+        <v>2</v>
+      </c>
+      <c r="E11" s="12" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" s="10">
+        <v>43972</v>
+      </c>
+      <c r="B12" s="5"/>
+      <c r="C12" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="D12" s="5">
+        <v>7</v>
+      </c>
+      <c r="E12" s="12" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" s="10">
+        <v>43973</v>
+      </c>
+      <c r="B13" s="5"/>
+      <c r="C13" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="D13" s="5">
+        <v>8</v>
+      </c>
+      <c r="E13" s="12" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" s="10">
+        <v>43973</v>
+      </c>
+      <c r="B14" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="C14" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="D14" s="11">
+        <v>1</v>
+      </c>
+      <c r="E14" s="12" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15" s="10">
+        <v>43974</v>
+      </c>
+      <c r="B15" s="5"/>
+      <c r="C15" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="D15" s="5">
+        <v>3</v>
+      </c>
+      <c r="E15" s="12" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B16" s="5"/>
+      <c r="C16" s="5"/>
+      <c r="D16" s="5"/>
+    </row>
+    <row r="17" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B17" s="5"/>
+      <c r="C17" s="5"/>
+      <c r="D17" s="5"/>
+    </row>
+    <row r="18" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B18" s="5"/>
+      <c r="C18" s="5"/>
+      <c r="D18" s="5"/>
+    </row>
+    <row r="19" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B19" s="5"/>
+      <c r="C19" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="D19" s="8">
+      <c r="D19" s="7">
         <f>SUM(D2:D18)</f>
-        <v>9</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="B20" s="6"/>
-      <c r="C20" s="6"/>
-      <c r="D20" s="6"/>
-    </row>
-    <row r="21">
-      <c r="B21" s="6"/>
-      <c r="C21" s="6"/>
-      <c r="D21" s="6"/>
-    </row>
-    <row r="22">
-      <c r="B22" s="6"/>
-      <c r="C22" s="6"/>
-      <c r="D22" s="6"/>
-    </row>
-    <row r="23">
-      <c r="B23" s="6"/>
-      <c r="C23" s="6"/>
-      <c r="D23" s="6"/>
-    </row>
-    <row r="24">
-      <c r="B24" s="6"/>
-      <c r="C24" s="6"/>
-      <c r="D24" s="6"/>
-    </row>
-    <row r="25">
-      <c r="B25" s="6"/>
-      <c r="C25" s="6"/>
-      <c r="D25" s="6"/>
-    </row>
-    <row r="26">
-      <c r="B26" s="6"/>
-      <c r="C26" s="6"/>
-      <c r="D26" s="6"/>
-    </row>
-    <row r="27">
-      <c r="B27" s="6"/>
-      <c r="C27" s="6"/>
-      <c r="D27" s="6"/>
-    </row>
-    <row r="28">
-      <c r="B28" s="6"/>
-      <c r="C28" s="6"/>
-      <c r="D28" s="6"/>
-    </row>
-    <row r="29">
-      <c r="B29" s="6"/>
-      <c r="C29" s="6"/>
-      <c r="D29" s="6"/>
-    </row>
-    <row r="30">
-      <c r="B30" s="6"/>
-      <c r="C30" s="6"/>
-      <c r="D30" s="6"/>
-    </row>
-    <row r="31">
-      <c r="B31" s="6"/>
-      <c r="C31" s="6"/>
-      <c r="D31" s="6"/>
+        <v>66</v>
+      </c>
+    </row>
+    <row r="20" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B20" s="5"/>
+      <c r="C20" s="5"/>
+      <c r="D20" s="5"/>
+    </row>
+    <row r="21" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B21" s="5"/>
+      <c r="C21" s="5"/>
+      <c r="D21" s="5"/>
+    </row>
+    <row r="22" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B22" s="5"/>
+      <c r="C22" s="5"/>
+      <c r="D22" s="5"/>
+    </row>
+    <row r="23" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B23" s="5"/>
+      <c r="C23" s="5"/>
+      <c r="D23" s="5"/>
+    </row>
+    <row r="24" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B24" s="5"/>
+      <c r="C24" s="5"/>
+      <c r="D24" s="5"/>
+    </row>
+    <row r="25" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B25" s="5"/>
+      <c r="C25" s="5"/>
+      <c r="D25" s="5"/>
+    </row>
+    <row r="26" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B26" s="5"/>
+      <c r="C26" s="5"/>
+      <c r="D26" s="5"/>
+    </row>
+    <row r="27" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B27" s="5"/>
+      <c r="C27" s="5"/>
+      <c r="D27" s="5"/>
+    </row>
+    <row r="28" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B28" s="5"/>
+      <c r="C28" s="5"/>
+      <c r="D28" s="5"/>
+    </row>
+    <row r="29" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B29" s="5"/>
+      <c r="C29" s="5"/>
+      <c r="D29" s="5"/>
+    </row>
+    <row r="30" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B30" s="5"/>
+      <c r="C30" s="5"/>
+      <c r="D30" s="5"/>
+    </row>
+    <row r="31" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B31" s="5"/>
+      <c r="C31" s="5"/>
+      <c r="D31" s="5"/>
     </row>
   </sheetData>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Munkanaplo.xlsx
+++ b/Munkanaplo.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22730"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\uniProjects\Byteaholics-mdsd-2020\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Aron\Desktop\Byteaholics-mdsd-2020\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{219FDC83-3C13-4E74-A39F-4CFBB932F88C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{212C7785-BDB8-48D2-A83E-D4548ACB8540}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3585" yWindow="3150" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Munkalap1" sheetId="1" r:id="rId1"/>
@@ -20,9 +20,7 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -30,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="22">
   <si>
     <t>Dátum</t>
   </si>
@@ -59,9 +57,6 @@
     <t>Metamodell implementációja</t>
   </si>
   <si>
-    <t>SUM:</t>
-  </si>
-  <si>
     <t>Sirius</t>
   </si>
   <si>
@@ -75,6 +70,30 @@
   </si>
   <si>
     <t>Megbeszélés</t>
+  </si>
+  <si>
+    <t>M2M projekt setup</t>
+  </si>
+  <si>
+    <t>Trace projekt elkészítése és M2M-be való beépítése</t>
+  </si>
+  <si>
+    <t>Basic interaction M2M implementáció</t>
+  </si>
+  <si>
+    <t>Combined fragment m2m megvalósítása</t>
+  </si>
+  <si>
+    <t>Prefix-elágazások konzisztens m2m megvalósítása</t>
+  </si>
+  <si>
+    <t>Interaction use M2M megvalósítás</t>
+  </si>
+  <si>
+    <t>M2M projekt stabilizálása, lokális tesztelése</t>
+  </si>
+  <si>
+    <t>M2M (to) modell (LPT) tervezése és implementációja</t>
   </si>
 </sst>
 </file>
@@ -125,7 +144,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -142,26 +161,11 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -172,10 +176,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
@@ -191,9 +191,12 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normál" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -412,19 +415,19 @@
   <dimension ref="A1:E31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G15" sqref="G15"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="14.44140625" style="10"/>
-    <col min="2" max="2" width="17.33203125" customWidth="1"/>
-    <col min="4" max="4" width="17.33203125" customWidth="1"/>
-    <col min="5" max="5" width="38.109375" customWidth="1"/>
+    <col min="1" max="1" width="14.42578125" style="8"/>
+    <col min="2" max="2" width="17.28515625" customWidth="1"/>
+    <col min="4" max="4" width="17.28515625" customWidth="1"/>
+    <col min="5" max="5" width="51" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="8" t="s">
+    <row r="1" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
@@ -440,8 +443,8 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="9">
+    <row r="2" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="7">
         <v>43939</v>
       </c>
       <c r="B2" s="2" t="s">
@@ -457,8 +460,8 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="9">
+    <row r="3" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="7">
         <v>43940</v>
       </c>
       <c r="B3" s="2" t="s">
@@ -472,8 +475,8 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="9">
+    <row r="4" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="7">
         <v>43940</v>
       </c>
       <c r="B4" s="5"/>
@@ -487,258 +490,327 @@
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="9">
+    <row r="5" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="8">
         <v>43965</v>
       </c>
-      <c r="B5" s="5"/>
-      <c r="C5" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="D5" s="5">
+      <c r="B5" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="D5" s="3">
         <v>6</v>
       </c>
-      <c r="E5" s="12" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="10">
+      <c r="E5" s="4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="7">
+        <v>43965</v>
+      </c>
+      <c r="B6" s="5"/>
+      <c r="C6" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="D6" s="5">
+        <v>6</v>
+      </c>
+      <c r="E6" s="10" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="8">
         <v>43966</v>
       </c>
-      <c r="B6" s="5"/>
-      <c r="C6" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="D6" s="5">
+      <c r="B7" s="5"/>
+      <c r="C7" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="D7" s="5">
         <v>8</v>
       </c>
-      <c r="E6" s="12" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="10">
+      <c r="E7" s="10" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="8">
         <v>43966</v>
       </c>
-      <c r="B7" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="C7" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="D7" s="14">
+      <c r="B8" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="C8" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="D8" s="12">
         <v>2</v>
       </c>
-      <c r="E7" s="12" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" s="10">
+      <c r="E8" s="10" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="8">
         <v>43967</v>
       </c>
-      <c r="B8" s="5"/>
-      <c r="C8" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="D8" s="5">
+      <c r="B9" s="5"/>
+      <c r="C9" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="D9" s="5">
         <v>8</v>
       </c>
-      <c r="E8" s="12" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" s="10">
-        <v>43968</v>
-      </c>
-      <c r="B9" s="5"/>
-      <c r="C9" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="D9" s="5">
-        <v>4</v>
-      </c>
-      <c r="E9" s="12" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" s="10">
-        <v>43971</v>
-      </c>
-      <c r="B10" s="5"/>
-      <c r="C10" s="11" t="s">
+      <c r="E9" s="10" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="8">
+        <v>43967</v>
+      </c>
+      <c r="B10" s="13" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="5">
         <v>8</v>
       </c>
-      <c r="E10" s="12" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" s="10">
+      <c r="E10" s="10" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="8">
+        <v>43968</v>
+      </c>
+      <c r="B11" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="D11" s="5">
+        <v>6</v>
+      </c>
+      <c r="E11" s="10" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="8">
+        <v>43968</v>
+      </c>
+      <c r="B12" s="5"/>
+      <c r="C12" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="D12" s="5">
+        <v>4</v>
+      </c>
+      <c r="E12" s="10" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="8">
         <v>43971</v>
       </c>
-      <c r="B11" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="C11" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="D11" s="11">
-        <v>2</v>
-      </c>
-      <c r="E11" s="12" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" s="10">
-        <v>43972</v>
-      </c>
-      <c r="B12" s="5"/>
-      <c r="C12" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="D12" s="5">
-        <v>7</v>
-      </c>
-      <c r="E12" s="12" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13" s="10">
-        <v>43973</v>
-      </c>
       <c r="B13" s="5"/>
-      <c r="C13" s="11" t="s">
+      <c r="C13" s="9" t="s">
         <v>5</v>
       </c>
       <c r="D13" s="5">
         <v>8</v>
       </c>
-      <c r="E13" s="12" t="s">
+      <c r="E13" s="10" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="8">
+        <v>43971</v>
+      </c>
+      <c r="B14" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="C14" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="D14" s="9">
+        <v>2</v>
+      </c>
+      <c r="E14" s="10" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A14" s="10">
+    <row r="15" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="8">
+        <v>43972</v>
+      </c>
+      <c r="B15" s="5"/>
+      <c r="C15" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="D15" s="5">
+        <v>7</v>
+      </c>
+      <c r="E15" s="10" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="8">
+        <v>43972</v>
+      </c>
+      <c r="B16" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="D16" s="5">
+        <v>9</v>
+      </c>
+      <c r="E16" s="10" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="8">
         <v>43973</v>
       </c>
-      <c r="B14" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="C14" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="D14" s="11">
+      <c r="B17" s="5"/>
+      <c r="C17" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="D17" s="5">
+        <v>8</v>
+      </c>
+      <c r="E17" s="10" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="8">
+        <v>43973</v>
+      </c>
+      <c r="B18" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="D18" s="5">
+        <v>8</v>
+      </c>
+      <c r="E18" s="10" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="8">
+        <v>43973</v>
+      </c>
+      <c r="B19" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="D19" s="5">
+        <v>4</v>
+      </c>
+      <c r="E19" s="10" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="8">
+        <v>43973</v>
+      </c>
+      <c r="B20" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="C20" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="D20" s="9">
         <v>1</v>
       </c>
-      <c r="E14" s="12" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A15" s="10">
+      <c r="E20" s="10" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="8">
         <v>43974</v>
       </c>
-      <c r="B15" s="5"/>
-      <c r="C15" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="D15" s="5">
+      <c r="B21" s="5"/>
+      <c r="C21" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="D21" s="5">
         <v>3</v>
       </c>
-      <c r="E15" s="12" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B16" s="5"/>
-      <c r="C16" s="5"/>
-      <c r="D16" s="5"/>
-    </row>
-    <row r="17" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B17" s="5"/>
-      <c r="C17" s="5"/>
-      <c r="D17" s="5"/>
-    </row>
-    <row r="18" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B18" s="5"/>
-      <c r="C18" s="5"/>
-      <c r="D18" s="5"/>
-    </row>
-    <row r="19" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B19" s="5"/>
-      <c r="C19" s="6" t="s">
+      <c r="E21" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="D19" s="7">
-        <f>SUM(D2:D18)</f>
-        <v>66</v>
-      </c>
-    </row>
-    <row r="20" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B20" s="5"/>
-      <c r="C20" s="5"/>
-      <c r="D20" s="5"/>
-    </row>
-    <row r="21" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B21" s="5"/>
-      <c r="C21" s="5"/>
-      <c r="D21" s="5"/>
-    </row>
-    <row r="22" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B22" s="5"/>
+    </row>
+    <row r="22" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="8">
+        <v>43974</v>
+      </c>
+      <c r="B22" s="5" t="s">
+        <v>5</v>
+      </c>
       <c r="C22" s="5"/>
-      <c r="D22" s="5"/>
-    </row>
-    <row r="23" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B23" s="5"/>
+      <c r="D22" s="5">
+        <v>9</v>
+      </c>
+      <c r="E22" s="10" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="8">
+        <v>43974</v>
+      </c>
+      <c r="B23" s="5" t="s">
+        <v>5</v>
+      </c>
       <c r="C23" s="5"/>
-      <c r="D23" s="5"/>
-    </row>
-    <row r="24" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="D23" s="5">
+        <v>8</v>
+      </c>
+      <c r="E23" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B24" s="5"/>
       <c r="C24" s="5"/>
       <c r="D24" s="5"/>
     </row>
-    <row r="25" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B25" s="5"/>
       <c r="C25" s="5"/>
       <c r="D25" s="5"/>
     </row>
-    <row r="26" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B26" s="5"/>
       <c r="C26" s="5"/>
       <c r="D26" s="5"/>
     </row>
-    <row r="27" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B27" s="5"/>
       <c r="C27" s="5"/>
       <c r="D27" s="5"/>
     </row>
-    <row r="28" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B28" s="5"/>
       <c r="C28" s="5"/>
       <c r="D28" s="5"/>
     </row>
-    <row r="29" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B29" s="5"/>
       <c r="C29" s="5"/>
       <c r="D29" s="5"/>
     </row>
-    <row r="30" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B30" s="5"/>
       <c r="C30" s="5"/>
       <c r="D30" s="5"/>
     </row>
-    <row r="31" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B31" s="5"/>
       <c r="C31" s="5"/>
       <c r="D31" s="5"/>

--- a/Munkanaplo.xlsx
+++ b/Munkanaplo.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Aron\Desktop\Byteaholics-mdsd-2020\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{212C7785-BDB8-48D2-A83E-D4548ACB8540}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B4F31F4-2BB3-4229-B42A-D6B230F8A199}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3585" yWindow="3150" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Munkalap1" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="23">
   <si>
     <t>Dátum</t>
   </si>
@@ -94,6 +94,9 @@
   </si>
   <si>
     <t>M2M (to) modell (LPT) tervezése és implementációja</t>
+  </si>
+  <si>
+    <t>SUM:</t>
   </si>
 </sst>
 </file>
@@ -144,7 +147,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -161,11 +164,37 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -192,6 +221,12 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -415,7 +450,7 @@
   <dimension ref="A1:E31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="E25" sqref="E25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -780,15 +815,20 @@
       <c r="C24" s="5"/>
       <c r="D24" s="5"/>
     </row>
-    <row r="25" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B25" s="5"/>
       <c r="C25" s="5"/>
       <c r="D25" s="5"/>
     </row>
-    <row r="26" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B26" s="5"/>
-      <c r="C26" s="5"/>
-      <c r="D26" s="5"/>
+      <c r="C26" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="D26" s="15">
+        <f>SUM(D2:D25)</f>
+        <v>124</v>
+      </c>
     </row>
     <row r="27" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B27" s="5"/>
